--- a/data/base_xbox.xlsx
+++ b/data/base_xbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositórios\santander-bootcamp-excel_IA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\planilhas\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6B4D43-525F-4FBB-9784-1087084DE71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F8ED6-40B2-4E08-832A-7140AC03FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
@@ -18,31 +18,28 @@
     <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="SegmentaçãodeDados_Subscription_Type">#N/A</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="313">
   <si>
     <t>Paleta de Cores</t>
   </si>
@@ -982,112 +979,6 @@
   </si>
   <si>
     <t>Subscription Price</t>
-  </si>
-  <si>
-    <t>Perguntas de Negócios</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Informação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: É uma perguntada de negócio respondida através de alguma análise de dado específico</t>
-    </r>
-  </si>
-  <si>
-    <t>Soma de Total Value</t>
-  </si>
-  <si>
-    <t>Rótulos de Linha</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
-    <r>
-      <t>1 - Qual o faturamento</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> total de venda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>planos anuais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ( contendo todas as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assinaturas agregadas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ) - R:  R$ 7.633,00</t>
-    </r>
-  </si>
-  <si>
-    <t>1 - Qual o faturamento total de venda de vendas de planos anuais separado por auto-renovação ou que não é auto-renovação - R: R$ 1.754,00</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1087,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1217,19 +1108,37 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1276,7 +1185,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE70011"/>
       <color rgb="FF22C55E"/>
       <color rgb="FFE8E6E9"/>
       <color rgb="FF5BF6A8"/>
@@ -1286,6 +1194,7 @@
       <color rgb="FFF7F8FC"/>
       <color rgb="FF2AE6B1"/>
       <color rgb="FF9BC848"/>
+      <color rgb="FFE70011"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1297,914 +1206,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[base_xbox.xlsx]C̳álculos!tbl_anual_total</c:name>
-    <c:fmtId val="2"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:srgbClr val="E70011"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>C̳álculos!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E70011"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B19F-4063-B784-33F303E26051}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B19F-4063-B784-33F303E26051}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>C̳álculos!$B$14:$B$16</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>C̳álculos!$C$14:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B19F-4063-B784-33F303E26051}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="650097800"/>
-        <c:axId val="650099600"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="650097800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="650099600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="650099600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650097800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2757,8 +1758,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2805,8 +1806,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2852,13 +1853,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2900,13 +1901,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2944,6150 +1945,32 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1252403-CB8C-E013-2D9D-414F3E521961}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Subscription Type">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AA0FF5-BB67-FC90-1F74-C78C4B751105}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Subscription Type"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3209925" y="1895474"/>
-              <a:ext cx="1828800" cy="1381125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
-\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paulo Roberto L. de F. Junior" refreshedDate="45828.456159953705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="295" xr:uid="{ADCF53A3-05F6-4839-A457-DA32F81DEABD}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tabela1"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Subscriber ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3231" maxValue="3525"/>
-    </cacheField>
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Plan" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Start Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-12-17T00:00:00" count="294">
-        <d v="2024-01-01T00:00:00"/>
-        <d v="2024-01-15T00:00:00"/>
-        <d v="2024-02-10T00:00:00"/>
-        <d v="2024-02-20T00:00:00"/>
-        <d v="2024-03-05T00:00:00"/>
-        <d v="2024-03-02T00:00:00"/>
-        <d v="2024-03-03T00:00:00"/>
-        <d v="2024-03-04T00:00:00"/>
-        <d v="2024-03-06T00:00:00"/>
-        <d v="2024-03-07T00:00:00"/>
-        <d v="2024-03-08T00:00:00"/>
-        <d v="2024-03-09T00:00:00"/>
-        <d v="2024-03-10T00:00:00"/>
-        <d v="2024-03-11T00:00:00"/>
-        <d v="2024-03-12T00:00:00"/>
-        <d v="2024-03-13T00:00:00"/>
-        <d v="2024-03-14T00:00:00"/>
-        <d v="2024-03-15T00:00:00"/>
-        <d v="2024-03-16T00:00:00"/>
-        <d v="2024-03-17T00:00:00"/>
-        <d v="2024-03-18T00:00:00"/>
-        <d v="2024-03-19T00:00:00"/>
-        <d v="2024-03-20T00:00:00"/>
-        <d v="2024-03-21T00:00:00"/>
-        <d v="2024-03-22T00:00:00"/>
-        <d v="2024-03-23T00:00:00"/>
-        <d v="2024-03-24T00:00:00"/>
-        <d v="2024-03-25T00:00:00"/>
-        <d v="2024-03-26T00:00:00"/>
-        <d v="2024-03-27T00:00:00"/>
-        <d v="2024-03-28T00:00:00"/>
-        <d v="2024-03-29T00:00:00"/>
-        <d v="2024-03-30T00:00:00"/>
-        <d v="2024-03-31T00:00:00"/>
-        <d v="2024-04-01T00:00:00"/>
-        <d v="2024-04-02T00:00:00"/>
-        <d v="2024-04-03T00:00:00"/>
-        <d v="2024-04-04T00:00:00"/>
-        <d v="2024-04-05T00:00:00"/>
-        <d v="2024-04-06T00:00:00"/>
-        <d v="2024-04-07T00:00:00"/>
-        <d v="2024-04-08T00:00:00"/>
-        <d v="2024-04-09T00:00:00"/>
-        <d v="2024-04-10T00:00:00"/>
-        <d v="2024-04-11T00:00:00"/>
-        <d v="2024-04-12T00:00:00"/>
-        <d v="2024-04-13T00:00:00"/>
-        <d v="2024-04-14T00:00:00"/>
-        <d v="2024-04-15T00:00:00"/>
-        <d v="2024-04-16T00:00:00"/>
-        <d v="2024-04-17T00:00:00"/>
-        <d v="2024-04-18T00:00:00"/>
-        <d v="2024-04-19T00:00:00"/>
-        <d v="2024-04-20T00:00:00"/>
-        <d v="2024-04-21T00:00:00"/>
-        <d v="2024-04-22T00:00:00"/>
-        <d v="2024-04-23T00:00:00"/>
-        <d v="2024-04-24T00:00:00"/>
-        <d v="2024-04-25T00:00:00"/>
-        <d v="2024-04-26T00:00:00"/>
-        <d v="2024-04-27T00:00:00"/>
-        <d v="2024-04-28T00:00:00"/>
-        <d v="2024-04-29T00:00:00"/>
-        <d v="2024-04-30T00:00:00"/>
-        <d v="2024-05-01T00:00:00"/>
-        <d v="2024-05-02T00:00:00"/>
-        <d v="2024-05-03T00:00:00"/>
-        <d v="2024-05-04T00:00:00"/>
-        <d v="2024-05-05T00:00:00"/>
-        <d v="2024-05-06T00:00:00"/>
-        <d v="2024-05-07T00:00:00"/>
-        <d v="2024-05-08T00:00:00"/>
-        <d v="2024-05-09T00:00:00"/>
-        <d v="2024-05-10T00:00:00"/>
-        <d v="2024-05-11T00:00:00"/>
-        <d v="2024-05-12T00:00:00"/>
-        <d v="2024-05-13T00:00:00"/>
-        <d v="2024-05-14T00:00:00"/>
-        <d v="2024-05-15T00:00:00"/>
-        <d v="2024-05-16T00:00:00"/>
-        <d v="2024-05-17T00:00:00"/>
-        <d v="2024-05-18T00:00:00"/>
-        <d v="2024-05-19T00:00:00"/>
-        <d v="2024-05-20T00:00:00"/>
-        <d v="2024-05-21T00:00:00"/>
-        <d v="2024-05-22T00:00:00"/>
-        <d v="2024-05-23T00:00:00"/>
-        <d v="2024-05-24T00:00:00"/>
-        <d v="2024-05-25T00:00:00"/>
-        <d v="2024-05-26T00:00:00"/>
-        <d v="2024-05-27T00:00:00"/>
-        <d v="2024-05-28T00:00:00"/>
-        <d v="2024-05-29T00:00:00"/>
-        <d v="2024-05-30T00:00:00"/>
-        <d v="2024-05-31T00:00:00"/>
-        <d v="2024-06-01T00:00:00"/>
-        <d v="2024-06-02T00:00:00"/>
-        <d v="2024-06-03T00:00:00"/>
-        <d v="2024-06-04T00:00:00"/>
-        <d v="2024-06-05T00:00:00"/>
-        <d v="2024-06-06T00:00:00"/>
-        <d v="2024-06-07T00:00:00"/>
-        <d v="2024-06-08T00:00:00"/>
-        <d v="2024-06-09T00:00:00"/>
-        <d v="2024-06-10T00:00:00"/>
-        <d v="2024-06-11T00:00:00"/>
-        <d v="2024-06-12T00:00:00"/>
-        <d v="2024-06-13T00:00:00"/>
-        <d v="2024-06-14T00:00:00"/>
-        <d v="2024-06-15T00:00:00"/>
-        <d v="2024-06-16T00:00:00"/>
-        <d v="2024-06-17T00:00:00"/>
-        <d v="2024-06-18T00:00:00"/>
-        <d v="2024-06-19T00:00:00"/>
-        <d v="2024-06-20T00:00:00"/>
-        <d v="2024-06-21T00:00:00"/>
-        <d v="2024-06-22T00:00:00"/>
-        <d v="2024-06-23T00:00:00"/>
-        <d v="2024-06-24T00:00:00"/>
-        <d v="2024-06-25T00:00:00"/>
-        <d v="2024-06-26T00:00:00"/>
-        <d v="2024-06-27T00:00:00"/>
-        <d v="2024-06-28T00:00:00"/>
-        <d v="2024-06-29T00:00:00"/>
-        <d v="2024-06-30T00:00:00"/>
-        <d v="2024-07-01T00:00:00"/>
-        <d v="2024-07-02T00:00:00"/>
-        <d v="2024-07-03T00:00:00"/>
-        <d v="2024-07-04T00:00:00"/>
-        <d v="2024-07-05T00:00:00"/>
-        <d v="2024-07-06T00:00:00"/>
-        <d v="2024-07-07T00:00:00"/>
-        <d v="2024-07-08T00:00:00"/>
-        <d v="2024-07-09T00:00:00"/>
-        <d v="2024-07-10T00:00:00"/>
-        <d v="2024-07-11T00:00:00"/>
-        <d v="2024-07-12T00:00:00"/>
-        <d v="2024-07-13T00:00:00"/>
-        <d v="2024-07-14T00:00:00"/>
-        <d v="2024-07-15T00:00:00"/>
-        <d v="2024-07-16T00:00:00"/>
-        <d v="2024-07-17T00:00:00"/>
-        <d v="2024-07-18T00:00:00"/>
-        <d v="2024-07-19T00:00:00"/>
-        <d v="2024-07-20T00:00:00"/>
-        <d v="2024-07-21T00:00:00"/>
-        <d v="2024-07-22T00:00:00"/>
-        <d v="2024-07-23T00:00:00"/>
-        <d v="2024-07-24T00:00:00"/>
-        <d v="2024-07-25T00:00:00"/>
-        <d v="2024-07-26T00:00:00"/>
-        <d v="2024-07-27T00:00:00"/>
-        <d v="2024-07-28T00:00:00"/>
-        <d v="2024-07-29T00:00:00"/>
-        <d v="2024-07-30T00:00:00"/>
-        <d v="2024-07-31T00:00:00"/>
-        <d v="2024-08-01T00:00:00"/>
-        <d v="2024-08-02T00:00:00"/>
-        <d v="2024-08-03T00:00:00"/>
-        <d v="2024-08-04T00:00:00"/>
-        <d v="2024-08-05T00:00:00"/>
-        <d v="2024-08-06T00:00:00"/>
-        <d v="2024-08-07T00:00:00"/>
-        <d v="2024-08-08T00:00:00"/>
-        <d v="2024-08-09T00:00:00"/>
-        <d v="2024-08-10T00:00:00"/>
-        <d v="2024-08-11T00:00:00"/>
-        <d v="2024-08-12T00:00:00"/>
-        <d v="2024-08-13T00:00:00"/>
-        <d v="2024-08-14T00:00:00"/>
-        <d v="2024-08-15T00:00:00"/>
-        <d v="2024-08-16T00:00:00"/>
-        <d v="2024-08-17T00:00:00"/>
-        <d v="2024-08-18T00:00:00"/>
-        <d v="2024-08-19T00:00:00"/>
-        <d v="2024-08-20T00:00:00"/>
-        <d v="2024-08-21T00:00:00"/>
-        <d v="2024-08-22T00:00:00"/>
-        <d v="2024-08-23T00:00:00"/>
-        <d v="2024-08-24T00:00:00"/>
-        <d v="2024-08-25T00:00:00"/>
-        <d v="2024-08-26T00:00:00"/>
-        <d v="2024-08-27T00:00:00"/>
-        <d v="2024-08-28T00:00:00"/>
-        <d v="2024-08-29T00:00:00"/>
-        <d v="2024-08-30T00:00:00"/>
-        <d v="2024-08-31T00:00:00"/>
-        <d v="2024-09-01T00:00:00"/>
-        <d v="2024-09-02T00:00:00"/>
-        <d v="2024-09-03T00:00:00"/>
-        <d v="2024-09-04T00:00:00"/>
-        <d v="2024-09-05T00:00:00"/>
-        <d v="2024-09-06T00:00:00"/>
-        <d v="2024-09-07T00:00:00"/>
-        <d v="2024-09-08T00:00:00"/>
-        <d v="2024-09-09T00:00:00"/>
-        <d v="2024-09-10T00:00:00"/>
-        <d v="2024-09-11T00:00:00"/>
-        <d v="2024-09-12T00:00:00"/>
-        <d v="2024-09-13T00:00:00"/>
-        <d v="2024-09-14T00:00:00"/>
-        <d v="2024-09-15T00:00:00"/>
-        <d v="2024-09-16T00:00:00"/>
-        <d v="2024-09-17T00:00:00"/>
-        <d v="2024-09-18T00:00:00"/>
-        <d v="2024-09-19T00:00:00"/>
-        <d v="2024-09-20T00:00:00"/>
-        <d v="2024-09-21T00:00:00"/>
-        <d v="2024-09-22T00:00:00"/>
-        <d v="2024-09-23T00:00:00"/>
-        <d v="2024-09-24T00:00:00"/>
-        <d v="2024-09-25T00:00:00"/>
-        <d v="2024-09-26T00:00:00"/>
-        <d v="2024-09-27T00:00:00"/>
-        <d v="2024-09-28T00:00:00"/>
-        <d v="2024-09-29T00:00:00"/>
-        <d v="2024-09-30T00:00:00"/>
-        <d v="2024-10-01T00:00:00"/>
-        <d v="2024-10-02T00:00:00"/>
-        <d v="2024-10-03T00:00:00"/>
-        <d v="2024-10-04T00:00:00"/>
-        <d v="2024-10-05T00:00:00"/>
-        <d v="2024-10-06T00:00:00"/>
-        <d v="2024-10-07T00:00:00"/>
-        <d v="2024-10-08T00:00:00"/>
-        <d v="2024-10-09T00:00:00"/>
-        <d v="2024-10-10T00:00:00"/>
-        <d v="2024-10-11T00:00:00"/>
-        <d v="2024-10-12T00:00:00"/>
-        <d v="2024-10-13T00:00:00"/>
-        <d v="2024-10-14T00:00:00"/>
-        <d v="2024-10-15T00:00:00"/>
-        <d v="2024-10-16T00:00:00"/>
-        <d v="2024-10-17T00:00:00"/>
-        <d v="2024-10-18T00:00:00"/>
-        <d v="2024-10-19T00:00:00"/>
-        <d v="2024-10-20T00:00:00"/>
-        <d v="2024-10-21T00:00:00"/>
-        <d v="2024-10-22T00:00:00"/>
-        <d v="2024-10-23T00:00:00"/>
-        <d v="2024-10-24T00:00:00"/>
-        <d v="2024-10-25T00:00:00"/>
-        <d v="2024-10-26T00:00:00"/>
-        <d v="2024-10-27T00:00:00"/>
-        <d v="2024-10-28T00:00:00"/>
-        <d v="2024-10-29T00:00:00"/>
-        <d v="2024-10-30T00:00:00"/>
-        <d v="2024-10-31T00:00:00"/>
-        <d v="2024-11-01T00:00:00"/>
-        <d v="2024-11-02T00:00:00"/>
-        <d v="2024-11-03T00:00:00"/>
-        <d v="2024-11-04T00:00:00"/>
-        <d v="2024-11-05T00:00:00"/>
-        <d v="2024-11-06T00:00:00"/>
-        <d v="2024-11-07T00:00:00"/>
-        <d v="2024-11-08T00:00:00"/>
-        <d v="2024-11-09T00:00:00"/>
-        <d v="2024-11-10T00:00:00"/>
-        <d v="2024-11-11T00:00:00"/>
-        <d v="2024-11-12T00:00:00"/>
-        <d v="2024-11-13T00:00:00"/>
-        <d v="2024-11-14T00:00:00"/>
-        <d v="2024-11-15T00:00:00"/>
-        <d v="2024-11-16T00:00:00"/>
-        <d v="2024-11-17T00:00:00"/>
-        <d v="2024-11-18T00:00:00"/>
-        <d v="2024-11-19T00:00:00"/>
-        <d v="2024-11-20T00:00:00"/>
-        <d v="2024-11-21T00:00:00"/>
-        <d v="2024-11-22T00:00:00"/>
-        <d v="2024-11-23T00:00:00"/>
-        <d v="2024-11-24T00:00:00"/>
-        <d v="2024-11-25T00:00:00"/>
-        <d v="2024-11-26T00:00:00"/>
-        <d v="2024-11-27T00:00:00"/>
-        <d v="2024-11-28T00:00:00"/>
-        <d v="2024-11-29T00:00:00"/>
-        <d v="2024-11-30T00:00:00"/>
-        <d v="2024-12-01T00:00:00"/>
-        <d v="2024-12-02T00:00:00"/>
-        <d v="2024-12-03T00:00:00"/>
-        <d v="2024-12-04T00:00:00"/>
-        <d v="2024-12-05T00:00:00"/>
-        <d v="2024-12-06T00:00:00"/>
-        <d v="2024-12-07T00:00:00"/>
-        <d v="2024-12-08T00:00:00"/>
-        <d v="2024-12-09T00:00:00"/>
-        <d v="2024-12-10T00:00:00"/>
-        <d v="2024-12-11T00:00:00"/>
-        <d v="2024-12-12T00:00:00"/>
-        <d v="2024-12-13T00:00:00"/>
-        <d v="2024-12-14T00:00:00"/>
-        <d v="2024-12-15T00:00:00"/>
-        <d v="2024-12-16T00:00:00"/>
-      </sharedItems>
-      <fieldGroup par="14"/>
-    </cacheField>
-    <cacheField name="Auto Renewal" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Yes"/>
-        <s v="No"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Subscription Price" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="15" count="3">
-        <n v="15"/>
-        <n v="5"/>
-        <n v="10"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Subscription Type" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Monthly"/>
-        <s v="Annual"/>
-        <s v="Quarterly"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="EA Play Season Pass" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="EA Play Season Pass_x000a_Price" numFmtId="44">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="30" maxValue="30"/>
-    </cacheField>
-    <cacheField name="Minecraft Season Pass" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Minecraft Season Pass Price" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Coupon Value" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20"/>
-    </cacheField>
-    <cacheField name="Total Value" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="62"/>
-    </cacheField>
-    <cacheField name="Dias (Start Date)" numFmtId="0" databaseField="0">
-      <fieldGroup base="3">
-        <rangePr groupBy="days" startDate="2024-01-01T00:00:00" endDate="2024-12-17T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;01/01/2024"/>
-          <s v="01/jan"/>
-          <s v="02/jan"/>
-          <s v="03/jan"/>
-          <s v="04/jan"/>
-          <s v="05/jan"/>
-          <s v="06/jan"/>
-          <s v="07/jan"/>
-          <s v="08/jan"/>
-          <s v="09/jan"/>
-          <s v="10/jan"/>
-          <s v="11/jan"/>
-          <s v="12/jan"/>
-          <s v="13/jan"/>
-          <s v="14/jan"/>
-          <s v="15/jan"/>
-          <s v="16/jan"/>
-          <s v="17/jan"/>
-          <s v="18/jan"/>
-          <s v="19/jan"/>
-          <s v="20/jan"/>
-          <s v="21/jan"/>
-          <s v="22/jan"/>
-          <s v="23/jan"/>
-          <s v="24/jan"/>
-          <s v="25/jan"/>
-          <s v="26/jan"/>
-          <s v="27/jan"/>
-          <s v="28/jan"/>
-          <s v="29/jan"/>
-          <s v="30/jan"/>
-          <s v="31/jan"/>
-          <s v="01/fev"/>
-          <s v="02/fev"/>
-          <s v="03/fev"/>
-          <s v="04/fev"/>
-          <s v="05/fev"/>
-          <s v="06/fev"/>
-          <s v="07/fev"/>
-          <s v="08/fev"/>
-          <s v="09/fev"/>
-          <s v="10/fev"/>
-          <s v="11/fev"/>
-          <s v="12/fev"/>
-          <s v="13/fev"/>
-          <s v="14/fev"/>
-          <s v="15/fev"/>
-          <s v="16/fev"/>
-          <s v="17/fev"/>
-          <s v="18/fev"/>
-          <s v="19/fev"/>
-          <s v="20/fev"/>
-          <s v="21/fev"/>
-          <s v="22/fev"/>
-          <s v="23/fev"/>
-          <s v="24/fev"/>
-          <s v="25/fev"/>
-          <s v="26/fev"/>
-          <s v="27/fev"/>
-          <s v="28/fev"/>
-          <s v="29/fev"/>
-          <s v="01/mar"/>
-          <s v="02/mar"/>
-          <s v="03/mar"/>
-          <s v="04/mar"/>
-          <s v="05/mar"/>
-          <s v="06/mar"/>
-          <s v="07/mar"/>
-          <s v="08/mar"/>
-          <s v="09/mar"/>
-          <s v="10/mar"/>
-          <s v="11/mar"/>
-          <s v="12/mar"/>
-          <s v="13/mar"/>
-          <s v="14/mar"/>
-          <s v="15/mar"/>
-          <s v="16/mar"/>
-          <s v="17/mar"/>
-          <s v="18/mar"/>
-          <s v="19/mar"/>
-          <s v="20/mar"/>
-          <s v="21/mar"/>
-          <s v="22/mar"/>
-          <s v="23/mar"/>
-          <s v="24/mar"/>
-          <s v="25/mar"/>
-          <s v="26/mar"/>
-          <s v="27/mar"/>
-          <s v="28/mar"/>
-          <s v="29/mar"/>
-          <s v="30/mar"/>
-          <s v="31/mar"/>
-          <s v="01/abr"/>
-          <s v="02/abr"/>
-          <s v="03/abr"/>
-          <s v="04/abr"/>
-          <s v="05/abr"/>
-          <s v="06/abr"/>
-          <s v="07/abr"/>
-          <s v="08/abr"/>
-          <s v="09/abr"/>
-          <s v="10/abr"/>
-          <s v="11/abr"/>
-          <s v="12/abr"/>
-          <s v="13/abr"/>
-          <s v="14/abr"/>
-          <s v="15/abr"/>
-          <s v="16/abr"/>
-          <s v="17/abr"/>
-          <s v="18/abr"/>
-          <s v="19/abr"/>
-          <s v="20/abr"/>
-          <s v="21/abr"/>
-          <s v="22/abr"/>
-          <s v="23/abr"/>
-          <s v="24/abr"/>
-          <s v="25/abr"/>
-          <s v="26/abr"/>
-          <s v="27/abr"/>
-          <s v="28/abr"/>
-          <s v="29/abr"/>
-          <s v="30/abr"/>
-          <s v="01/mai"/>
-          <s v="02/mai"/>
-          <s v="03/mai"/>
-          <s v="04/mai"/>
-          <s v="05/mai"/>
-          <s v="06/mai"/>
-          <s v="07/mai"/>
-          <s v="08/mai"/>
-          <s v="09/mai"/>
-          <s v="10/mai"/>
-          <s v="11/mai"/>
-          <s v="12/mai"/>
-          <s v="13/mai"/>
-          <s v="14/mai"/>
-          <s v="15/mai"/>
-          <s v="16/mai"/>
-          <s v="17/mai"/>
-          <s v="18/mai"/>
-          <s v="19/mai"/>
-          <s v="20/mai"/>
-          <s v="21/mai"/>
-          <s v="22/mai"/>
-          <s v="23/mai"/>
-          <s v="24/mai"/>
-          <s v="25/mai"/>
-          <s v="26/mai"/>
-          <s v="27/mai"/>
-          <s v="28/mai"/>
-          <s v="29/mai"/>
-          <s v="30/mai"/>
-          <s v="31/mai"/>
-          <s v="01/jun"/>
-          <s v="02/jun"/>
-          <s v="03/jun"/>
-          <s v="04/jun"/>
-          <s v="05/jun"/>
-          <s v="06/jun"/>
-          <s v="07/jun"/>
-          <s v="08/jun"/>
-          <s v="09/jun"/>
-          <s v="10/jun"/>
-          <s v="11/jun"/>
-          <s v="12/jun"/>
-          <s v="13/jun"/>
-          <s v="14/jun"/>
-          <s v="15/jun"/>
-          <s v="16/jun"/>
-          <s v="17/jun"/>
-          <s v="18/jun"/>
-          <s v="19/jun"/>
-          <s v="20/jun"/>
-          <s v="21/jun"/>
-          <s v="22/jun"/>
-          <s v="23/jun"/>
-          <s v="24/jun"/>
-          <s v="25/jun"/>
-          <s v="26/jun"/>
-          <s v="27/jun"/>
-          <s v="28/jun"/>
-          <s v="29/jun"/>
-          <s v="30/jun"/>
-          <s v="01/jul"/>
-          <s v="02/jul"/>
-          <s v="03/jul"/>
-          <s v="04/jul"/>
-          <s v="05/jul"/>
-          <s v="06/jul"/>
-          <s v="07/jul"/>
-          <s v="08/jul"/>
-          <s v="09/jul"/>
-          <s v="10/jul"/>
-          <s v="11/jul"/>
-          <s v="12/jul"/>
-          <s v="13/jul"/>
-          <s v="14/jul"/>
-          <s v="15/jul"/>
-          <s v="16/jul"/>
-          <s v="17/jul"/>
-          <s v="18/jul"/>
-          <s v="19/jul"/>
-          <s v="20/jul"/>
-          <s v="21/jul"/>
-          <s v="22/jul"/>
-          <s v="23/jul"/>
-          <s v="24/jul"/>
-          <s v="25/jul"/>
-          <s v="26/jul"/>
-          <s v="27/jul"/>
-          <s v="28/jul"/>
-          <s v="29/jul"/>
-          <s v="30/jul"/>
-          <s v="31/jul"/>
-          <s v="01/ago"/>
-          <s v="02/ago"/>
-          <s v="03/ago"/>
-          <s v="04/ago"/>
-          <s v="05/ago"/>
-          <s v="06/ago"/>
-          <s v="07/ago"/>
-          <s v="08/ago"/>
-          <s v="09/ago"/>
-          <s v="10/ago"/>
-          <s v="11/ago"/>
-          <s v="12/ago"/>
-          <s v="13/ago"/>
-          <s v="14/ago"/>
-          <s v="15/ago"/>
-          <s v="16/ago"/>
-          <s v="17/ago"/>
-          <s v="18/ago"/>
-          <s v="19/ago"/>
-          <s v="20/ago"/>
-          <s v="21/ago"/>
-          <s v="22/ago"/>
-          <s v="23/ago"/>
-          <s v="24/ago"/>
-          <s v="25/ago"/>
-          <s v="26/ago"/>
-          <s v="27/ago"/>
-          <s v="28/ago"/>
-          <s v="29/ago"/>
-          <s v="30/ago"/>
-          <s v="31/ago"/>
-          <s v="01/set"/>
-          <s v="02/set"/>
-          <s v="03/set"/>
-          <s v="04/set"/>
-          <s v="05/set"/>
-          <s v="06/set"/>
-          <s v="07/set"/>
-          <s v="08/set"/>
-          <s v="09/set"/>
-          <s v="10/set"/>
-          <s v="11/set"/>
-          <s v="12/set"/>
-          <s v="13/set"/>
-          <s v="14/set"/>
-          <s v="15/set"/>
-          <s v="16/set"/>
-          <s v="17/set"/>
-          <s v="18/set"/>
-          <s v="19/set"/>
-          <s v="20/set"/>
-          <s v="21/set"/>
-          <s v="22/set"/>
-          <s v="23/set"/>
-          <s v="24/set"/>
-          <s v="25/set"/>
-          <s v="26/set"/>
-          <s v="27/set"/>
-          <s v="28/set"/>
-          <s v="29/set"/>
-          <s v="30/set"/>
-          <s v="01/out"/>
-          <s v="02/out"/>
-          <s v="03/out"/>
-          <s v="04/out"/>
-          <s v="05/out"/>
-          <s v="06/out"/>
-          <s v="07/out"/>
-          <s v="08/out"/>
-          <s v="09/out"/>
-          <s v="10/out"/>
-          <s v="11/out"/>
-          <s v="12/out"/>
-          <s v="13/out"/>
-          <s v="14/out"/>
-          <s v="15/out"/>
-          <s v="16/out"/>
-          <s v="17/out"/>
-          <s v="18/out"/>
-          <s v="19/out"/>
-          <s v="20/out"/>
-          <s v="21/out"/>
-          <s v="22/out"/>
-          <s v="23/out"/>
-          <s v="24/out"/>
-          <s v="25/out"/>
-          <s v="26/out"/>
-          <s v="27/out"/>
-          <s v="28/out"/>
-          <s v="29/out"/>
-          <s v="30/out"/>
-          <s v="31/out"/>
-          <s v="01/nov"/>
-          <s v="02/nov"/>
-          <s v="03/nov"/>
-          <s v="04/nov"/>
-          <s v="05/nov"/>
-          <s v="06/nov"/>
-          <s v="07/nov"/>
-          <s v="08/nov"/>
-          <s v="09/nov"/>
-          <s v="10/nov"/>
-          <s v="11/nov"/>
-          <s v="12/nov"/>
-          <s v="13/nov"/>
-          <s v="14/nov"/>
-          <s v="15/nov"/>
-          <s v="16/nov"/>
-          <s v="17/nov"/>
-          <s v="18/nov"/>
-          <s v="19/nov"/>
-          <s v="20/nov"/>
-          <s v="21/nov"/>
-          <s v="22/nov"/>
-          <s v="23/nov"/>
-          <s v="24/nov"/>
-          <s v="25/nov"/>
-          <s v="26/nov"/>
-          <s v="27/nov"/>
-          <s v="28/nov"/>
-          <s v="29/nov"/>
-          <s v="30/nov"/>
-          <s v="01/dez"/>
-          <s v="02/dez"/>
-          <s v="03/dez"/>
-          <s v="04/dez"/>
-          <s v="05/dez"/>
-          <s v="06/dez"/>
-          <s v="07/dez"/>
-          <s v="08/dez"/>
-          <s v="09/dez"/>
-          <s v="10/dez"/>
-          <s v="11/dez"/>
-          <s v="12/dez"/>
-          <s v="13/dez"/>
-          <s v="14/dez"/>
-          <s v="15/dez"/>
-          <s v="16/dez"/>
-          <s v="17/dez"/>
-          <s v="18/dez"/>
-          <s v="19/dez"/>
-          <s v="20/dez"/>
-          <s v="21/dez"/>
-          <s v="22/dez"/>
-          <s v="23/dez"/>
-          <s v="24/dez"/>
-          <s v="25/dez"/>
-          <s v="26/dez"/>
-          <s v="27/dez"/>
-          <s v="28/dez"/>
-          <s v="29/dez"/>
-          <s v="30/dez"/>
-          <s v="31/dez"/>
-          <s v="&gt;17/12/2024"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Meses (Start Date)" numFmtId="0" databaseField="0">
-      <fieldGroup base="3">
-        <rangePr groupBy="months" startDate="2024-01-01T00:00:00" endDate="2024-12-17T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;01/01/2024"/>
-          <s v="jan"/>
-          <s v="fev"/>
-          <s v="mar"/>
-          <s v="abr"/>
-          <s v="mai"/>
-          <s v="jun"/>
-          <s v="jul"/>
-          <s v="ago"/>
-          <s v="set"/>
-          <s v="out"/>
-          <s v="nov"/>
-          <s v="dez"/>
-          <s v="&gt;17/12/2024"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="222217946"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="295">
-  <r>
-    <n v="3231"/>
-    <s v="João Silva"/>
-    <s v="Ultimate"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3232"/>
-    <s v="Maria Oliveira"/>
-    <s v="Core"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3233"/>
-    <s v="Lucas Fernandes"/>
-    <s v="Standard"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3234"/>
-    <s v="Ana Souza"/>
-    <s v="Ultimate"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3235"/>
-    <s v="Pedro Gonçalves"/>
-    <s v="Core"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3236"/>
-    <s v="Felipe Costa"/>
-    <s v="Standard"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="2"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <n v="3237"/>
-    <s v="Camila Ribeiro"/>
-    <s v="Ultimate"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="55"/>
-  </r>
-  <r>
-    <n v="3238"/>
-    <s v="André Mendes"/>
-    <s v="Core"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3239"/>
-    <s v="Sofia Almeida"/>
-    <s v="Ultimate"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3240"/>
-    <s v="Bruno Martins"/>
-    <s v="Standard"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3241"/>
-    <s v="Rita Castro"/>
-    <s v="Core"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3242"/>
-    <s v="Marco Túlio"/>
-    <s v="Ultimate"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3243"/>
-    <s v="Lívia Silveira"/>
-    <s v="Standard"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3244"/>
-    <s v="Diogo Sousa"/>
-    <s v="Core"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3245"/>
-    <s v="Fernanda Lima"/>
-    <s v="Ultimate"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="8"/>
-    <n v="57"/>
-  </r>
-  <r>
-    <n v="3246"/>
-    <s v="Caio Pereira"/>
-    <s v="Standard"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3247"/>
-    <s v="Beatriz Gomes"/>
-    <s v="Core"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3248"/>
-    <s v="Cesar Oliveira"/>
-    <s v="Ultimate"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3249"/>
-    <s v="Débora Machado"/>
-    <s v="Standard"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3250"/>
-    <s v="Eduardo Vargas"/>
-    <s v="Core"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3251"/>
-    <s v="Gabriela Santos"/>
-    <s v="Ultimate"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3252"/>
-    <s v="Henrique Dias"/>
-    <s v="Standard"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3253"/>
-    <s v="Isabela Moreira"/>
-    <s v="Core"/>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3254"/>
-    <s v="Joaquim Barbosa"/>
-    <s v="Ultimate"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3255"/>
-    <s v="Lara Rocha"/>
-    <s v="Standard"/>
-    <x v="23"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3256"/>
-    <s v="Matheus Silva"/>
-    <s v="Core"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3257"/>
-    <s v="Nicole Costa"/>
-    <s v="Ultimate"/>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3258"/>
-    <s v="Otávio Mendonça"/>
-    <s v="Standard"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3259"/>
-    <s v="Paula Ferreira"/>
-    <s v="Core"/>
-    <x v="27"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3260"/>
-    <s v="Raquel Alves"/>
-    <s v="Ultimate"/>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3261"/>
-    <s v="Samuel Pires"/>
-    <s v="Standard"/>
-    <x v="29"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3262"/>
-    <s v="Tânia Barros"/>
-    <s v="Core"/>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3263"/>
-    <s v="Vinicius Lima"/>
-    <s v="Ultimate"/>
-    <x v="31"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3264"/>
-    <s v="Yasmin Teixeira"/>
-    <s v="Standard"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3265"/>
-    <s v="Zé Carlos"/>
-    <s v="Core"/>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3266"/>
-    <s v="Amanda Nogueira"/>
-    <s v="Core"/>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3267"/>
-    <s v="Bruno Cavalheiro"/>
-    <s v="Ultimate"/>
-    <x v="35"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3268"/>
-    <s v="Carla Dias"/>
-    <s v="Standard"/>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3269"/>
-    <s v="Diego Fontes"/>
-    <s v="Core"/>
-    <x v="37"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3270"/>
-    <s v="Eunice Lima"/>
-    <s v="Ultimate"/>
-    <x v="38"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3271"/>
-    <s v="Fábio Martins"/>
-    <s v="Standard"/>
-    <x v="39"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3272"/>
-    <s v="Gisele Araújo"/>
-    <s v="Core"/>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3273"/>
-    <s v="Hélio Castro"/>
-    <s v="Ultimate"/>
-    <x v="41"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3274"/>
-    <s v="Ingrid Menezes"/>
-    <s v="Standard"/>
-    <x v="42"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3275"/>
-    <s v="Jorge Baptista"/>
-    <s v="Core"/>
-    <x v="43"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3276"/>
-    <s v="Kléber Oliveira"/>
-    <s v="Ultimate"/>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3277"/>
-    <s v="Luciana Freitas"/>
-    <s v="Standard"/>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3278"/>
-    <s v="Márcia Eller"/>
-    <s v="Core"/>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3279"/>
-    <s v="Nilo Peçanha"/>
-    <s v="Ultimate"/>
-    <x v="47"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3280"/>
-    <s v="Oscar Neves"/>
-    <s v="Standard"/>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3281"/>
-    <s v="Patrícia Soares"/>
-    <s v="Core"/>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3282"/>
-    <s v="Quirino Gonçalves"/>
-    <s v="Ultimate"/>
-    <x v="50"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3283"/>
-    <s v="Raul Machado"/>
-    <s v="Standard"/>
-    <x v="51"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3284"/>
-    <s v="Sônia Lobo"/>
-    <s v="Core"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3285"/>
-    <s v="Tiago Ramos"/>
-    <s v="Ultimate"/>
-    <x v="53"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3286"/>
-    <s v="Ugo Pires"/>
-    <s v="Standard"/>
-    <x v="54"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3287"/>
-    <s v="Valéria Nobre"/>
-    <s v="Core"/>
-    <x v="55"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3288"/>
-    <s v="William Siqueira"/>
-    <s v="Ultimate"/>
-    <x v="56"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3289"/>
-    <s v="Xuxa Meneghel"/>
-    <s v="Standard"/>
-    <x v="57"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3290"/>
-    <s v="Yara Figueiredo"/>
-    <s v="Core"/>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3291"/>
-    <s v="Zacarias Alves"/>
-    <s v="Ultimate"/>
-    <x v="59"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3292"/>
-    <s v="Amanda Bynes"/>
-    <s v="Standard"/>
-    <x v="60"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3293"/>
-    <s v="Bruno Mars"/>
-    <s v="Core"/>
-    <x v="61"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3294"/>
-    <s v="Carla Bruni"/>
-    <s v="Ultimate"/>
-    <x v="62"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3295"/>
-    <s v="Diego Maradona"/>
-    <s v="Standard"/>
-    <x v="63"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3296"/>
-    <s v="Estela Marques"/>
-    <s v="Core"/>
-    <x v="64"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3297"/>
-    <s v="Fábio Nobre"/>
-    <s v="Ultimate"/>
-    <x v="65"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3298"/>
-    <s v="Gabriel Oliveira"/>
-    <s v="Standard"/>
-    <x v="66"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3299"/>
-    <s v="Helena Santos"/>
-    <s v="Core"/>
-    <x v="67"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3300"/>
-    <s v="Ivan Carvalho"/>
-    <s v="Ultimate"/>
-    <x v="68"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3301"/>
-    <s v="Júlia Ferreira"/>
-    <s v="Standard"/>
-    <x v="69"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3302"/>
-    <s v="Karla Alves"/>
-    <s v="Core"/>
-    <x v="70"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3303"/>
-    <s v="Lucas Mendes"/>
-    <s v="Ultimate"/>
-    <x v="71"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3304"/>
-    <s v="Mônica Gomes"/>
-    <s v="Standard"/>
-    <x v="72"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3305"/>
-    <s v="Norberto Queiroz"/>
-    <s v="Core"/>
-    <x v="73"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3306"/>
-    <s v="Otávio Barros"/>
-    <s v="Ultimate"/>
-    <x v="74"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3307"/>
-    <s v="Paula Vieira"/>
-    <s v="Standard"/>
-    <x v="75"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3308"/>
-    <s v="Quentin Ramos"/>
-    <s v="Core"/>
-    <x v="76"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3309"/>
-    <s v="Raquel Novaes"/>
-    <s v="Ultimate"/>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3310"/>
-    <s v="Samantha Lopes"/>
-    <s v="Standard"/>
-    <x v="78"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3311"/>
-    <s v="Tiago Martins"/>
-    <s v="Core"/>
-    <x v="79"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3312"/>
-    <s v="Ulysses Guimarães"/>
-    <s v="Ultimate"/>
-    <x v="80"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3313"/>
-    <s v="Vanessa Silva"/>
-    <s v="Standard"/>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3314"/>
-    <s v="William Carneiro"/>
-    <s v="Core"/>
-    <x v="82"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3315"/>
-    <s v="Ximena Rocha"/>
-    <s v="Ultimate"/>
-    <x v="83"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3316"/>
-    <s v="Yasmin Figueiredo"/>
-    <s v="Standard"/>
-    <x v="84"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3317"/>
-    <s v="Zara Cunha"/>
-    <s v="Core"/>
-    <x v="85"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3318"/>
-    <s v="Alan Teixeira"/>
-    <s v="Ultimate"/>
-    <x v="86"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3319"/>
-    <s v="Bárbara Oliveira"/>
-    <s v="Standard"/>
-    <x v="87"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3320"/>
-    <s v="Carlos Junqueira"/>
-    <s v="Core"/>
-    <x v="88"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3321"/>
-    <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
-    <x v="89"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3322"/>
-    <s v="Eduardo Lima"/>
-    <s v="Standard"/>
-    <x v="90"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3323"/>
-    <s v="Fabiana Araújo"/>
-    <s v="Core"/>
-    <x v="91"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3324"/>
-    <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
-    <x v="92"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3325"/>
-    <s v="Héctor Vargas"/>
-    <s v="Standard"/>
-    <x v="93"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3326"/>
-    <s v="Isabela Fonseca"/>
-    <s v="Core"/>
-    <x v="94"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3327"/>
-    <s v="João Pedro Almeida"/>
-    <s v="Ultimate"/>
-    <x v="95"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3328"/>
-    <s v="Klara Costa"/>
-    <s v="Standard"/>
-    <x v="96"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3329"/>
-    <s v="Luciana Mendes"/>
-    <s v="Core"/>
-    <x v="97"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3330"/>
-    <s v="Marcelo Gouveia"/>
-    <s v="Ultimate"/>
-    <x v="98"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3331"/>
-    <s v="Nívea Borges"/>
-    <s v="Standard"/>
-    <x v="99"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3332"/>
-    <s v="Oscar Nogueira"/>
-    <s v="Core"/>
-    <x v="100"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3333"/>
-    <s v="Patrícia Alves"/>
-    <s v="Ultimate"/>
-    <x v="101"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3334"/>
-    <s v="Rafaela Silva"/>
-    <s v="Standard"/>
-    <x v="102"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3335"/>
-    <s v="Samantha Moraes"/>
-    <s v="Core"/>
-    <x v="103"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3336"/>
-    <s v="Tatiana Rocha"/>
-    <s v="Core"/>
-    <x v="104"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3337"/>
-    <s v="Ulisses Tavares"/>
-    <s v="Ultimate"/>
-    <x v="105"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3338"/>
-    <s v="Víctor Lemos"/>
-    <s v="Standard"/>
-    <x v="106"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3339"/>
-    <s v="Wilma Barros"/>
-    <s v="Core"/>
-    <x v="107"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3340"/>
-    <s v="Xavier Nascimento"/>
-    <s v="Ultimate"/>
-    <x v="108"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3341"/>
-    <s v="Yago Pereira"/>
-    <s v="Standard"/>
-    <x v="109"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3342"/>
-    <s v="Zilda Ferreira"/>
-    <s v="Core"/>
-    <x v="110"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3343"/>
-    <s v="Amanda Lopes"/>
-    <s v="Ultimate"/>
-    <x v="111"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3344"/>
-    <s v="Bruno Miranda"/>
-    <s v="Standard"/>
-    <x v="112"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3345"/>
-    <s v="Célia Torres"/>
-    <s v="Core"/>
-    <x v="113"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3346"/>
-    <s v="Diogo Souza"/>
-    <s v="Ultimate"/>
-    <x v="114"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3347"/>
-    <s v="Elisa Castro"/>
-    <s v="Standard"/>
-    <x v="115"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3348"/>
-    <s v="Fátima Lima"/>
-    <s v="Core"/>
-    <x v="116"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3349"/>
-    <s v="Geraldo Ribeiro"/>
-    <s v="Ultimate"/>
-    <x v="117"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3350"/>
-    <s v="Hélio Martins"/>
-    <s v="Standard"/>
-    <x v="118"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3351"/>
-    <s v="Íris Santos"/>
-    <s v="Core"/>
-    <x v="119"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3352"/>
-    <s v="João Marcelo"/>
-    <s v="Ultimate"/>
-    <x v="120"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3353"/>
-    <s v="Larissa Gomes"/>
-    <s v="Standard"/>
-    <x v="121"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3354"/>
-    <s v="Márcio Silva"/>
-    <s v="Core"/>
-    <x v="122"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3355"/>
-    <s v="Nadia Costa"/>
-    <s v="Ultimate"/>
-    <x v="123"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3356"/>
-    <s v="Oscar Almeida"/>
-    <s v="Standard"/>
-    <x v="124"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3357"/>
-    <s v="Patricia Soares"/>
-    <s v="Core"/>
-    <x v="125"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3358"/>
-    <s v="Quênia Barros"/>
-    <s v="Ultimate"/>
-    <x v="126"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3359"/>
-    <s v="Rafael Torres"/>
-    <s v="Standard"/>
-    <x v="127"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3360"/>
-    <s v="Silvia Nascimento"/>
-    <s v="Core"/>
-    <x v="128"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3361"/>
-    <s v="Tiago Mendes"/>
-    <s v="Ultimate"/>
-    <x v="129"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3362"/>
-    <s v="Ursula Silva"/>
-    <s v="Standard"/>
-    <x v="130"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3363"/>
-    <s v="Vanessa Moraes"/>
-    <s v="Core"/>
-    <x v="131"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3364"/>
-    <s v="Waldir Junior"/>
-    <s v="Ultimate"/>
-    <x v="132"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3365"/>
-    <s v="Xavier Lopes"/>
-    <s v="Standard"/>
-    <x v="133"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3366"/>
-    <s v="Yolanda Freitas"/>
-    <s v="Core"/>
-    <x v="134"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3367"/>
-    <s v="Zacarias Nunes"/>
-    <s v="Ultimate"/>
-    <x v="135"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3368"/>
-    <s v="Ana Clara Barreto"/>
-    <s v="Standard"/>
-    <x v="136"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3369"/>
-    <s v="Bruno Henrique"/>
-    <s v="Core"/>
-    <x v="137"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3370"/>
-    <s v="Carlos Eduardo"/>
-    <s v="Ultimate"/>
-    <x v="138"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3371"/>
-    <s v="Débora Lima"/>
-    <s v="Standard"/>
-    <x v="139"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3372"/>
-    <s v="Elisa Neves"/>
-    <s v="Core"/>
-    <x v="140"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3373"/>
-    <s v="Fabiano Gomes"/>
-    <s v="Ultimate"/>
-    <x v="141"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3374"/>
-    <s v="Gisele Oliveira"/>
-    <s v="Standard"/>
-    <x v="142"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3375"/>
-    <s v="Héctor Silva"/>
-    <s v="Core"/>
-    <x v="143"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3376"/>
-    <s v="Igor Martins"/>
-    <s v="Ultimate"/>
-    <x v="144"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3377"/>
-    <s v="Joana Figueiredo"/>
-    <s v="Standard"/>
-    <x v="145"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3378"/>
-    <s v="Kleber Machado"/>
-    <s v="Core"/>
-    <x v="146"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3379"/>
-    <s v="Luciana Santos"/>
-    <s v="Ultimate"/>
-    <x v="147"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3380"/>
-    <s v="Marcos Teixeira"/>
-    <s v="Standard"/>
-    <x v="148"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3381"/>
-    <s v="Natalia Costa"/>
-    <s v="Core"/>
-    <x v="149"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3382"/>
-    <s v="Oscar Ribeiro"/>
-    <s v="Ultimate"/>
-    <x v="150"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3383"/>
-    <s v="Patricia Almeida"/>
-    <s v="Standard"/>
-    <x v="151"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3384"/>
-    <s v="Quirino Junior"/>
-    <s v="Core"/>
-    <x v="152"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3385"/>
-    <s v="Renata Machado"/>
-    <s v="Ultimate"/>
-    <x v="153"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3386"/>
-    <s v="Sônia Alves"/>
-    <s v="Standard"/>
-    <x v="154"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3387"/>
-    <s v="Tiago Nunes"/>
-    <s v="Core"/>
-    <x v="155"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3388"/>
-    <s v="Ulysses Pereira"/>
-    <s v="Ultimate"/>
-    <x v="156"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3389"/>
-    <s v="Vanessa Lima"/>
-    <s v="Standard"/>
-    <x v="157"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3390"/>
-    <s v="Wagner Santos"/>
-    <s v="Core"/>
-    <x v="158"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3391"/>
-    <s v="Xuxa Meneghel"/>
-    <s v="Ultimate"/>
-    <x v="159"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3392"/>
-    <s v="Yasmin Silva"/>
-    <s v="Standard"/>
-    <x v="160"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3393"/>
-    <s v="Zacarias de Souza"/>
-    <s v="Core"/>
-    <x v="161"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3394"/>
-    <s v="André Lima"/>
-    <s v="Ultimate"/>
-    <x v="162"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3395"/>
-    <s v="Bianca Freitas"/>
-    <s v="Standard"/>
-    <x v="163"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3396"/>
-    <s v="Caio Mendes"/>
-    <s v="Core"/>
-    <x v="164"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3397"/>
-    <s v="Daniela Moura"/>
-    <s v="Ultimate"/>
-    <x v="165"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3398"/>
-    <s v="Eduardo Costa"/>
-    <s v="Standard"/>
-    <x v="166"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3399"/>
-    <s v="Fernanda Gomes"/>
-    <s v="Core"/>
-    <x v="167"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3400"/>
-    <s v="Guilherme Souza"/>
-    <s v="Ultimate"/>
-    <x v="168"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3401"/>
-    <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
-    <x v="169"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3402"/>
-    <s v="Igor Santos"/>
-    <s v="Core"/>
-    <x v="170"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3403"/>
-    <s v="João Carvalho"/>
-    <s v="Ultimate"/>
-    <x v="171"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3404"/>
-    <s v="Klara Fagundes"/>
-    <s v="Standard"/>
-    <x v="172"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3405"/>
-    <s v="Lúcia Mendonça"/>
-    <s v="Core"/>
-    <x v="173"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3406"/>
-    <s v="Marcelo Novaes"/>
-    <s v="Core"/>
-    <x v="174"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3407"/>
-    <s v="Nina Pacheco"/>
-    <s v="Ultimate"/>
-    <x v="175"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3408"/>
-    <s v="Olívia Rios"/>
-    <s v="Standard"/>
-    <x v="176"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3409"/>
-    <s v="Paulo Quintana"/>
-    <s v="Core"/>
-    <x v="177"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3410"/>
-    <s v="Raquel Domingos"/>
-    <s v="Ultimate"/>
-    <x v="178"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3411"/>
-    <s v="Samuel Viana"/>
-    <s v="Standard"/>
-    <x v="179"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3412"/>
-    <s v="Tatiane Rocha"/>
-    <s v="Core"/>
-    <x v="180"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3413"/>
-    <s v="Ulysses Farias"/>
-    <s v="Ultimate"/>
-    <x v="181"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3414"/>
-    <s v="Vanessa Moreira"/>
-    <s v="Standard"/>
-    <x v="182"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3415"/>
-    <s v="William Carvalho"/>
-    <s v="Core"/>
-    <x v="183"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3416"/>
-    <s v="Ximena Barros"/>
-    <s v="Ultimate"/>
-    <x v="184"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3417"/>
-    <s v="Yara Machado"/>
-    <s v="Standard"/>
-    <x v="185"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3418"/>
-    <s v="Zacarias Costa"/>
-    <s v="Core"/>
-    <x v="186"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3419"/>
-    <s v="André Lopes"/>
-    <s v="Ultimate"/>
-    <x v="187"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3420"/>
-    <s v="Beatriz Souza"/>
-    <s v="Standard"/>
-    <x v="188"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3421"/>
-    <s v="Caio Pereira"/>
-    <s v="Core"/>
-    <x v="189"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3422"/>
-    <s v="Daniela Araújo"/>
-    <s v="Ultimate"/>
-    <x v="190"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3423"/>
-    <s v="Eduardo Santos"/>
-    <s v="Standard"/>
-    <x v="191"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3424"/>
-    <s v="Fernanda Lima"/>
-    <s v="Core"/>
-    <x v="192"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3425"/>
-    <s v="Gabriel Teixeira"/>
-    <s v="Ultimate"/>
-    <x v="193"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3426"/>
-    <s v="Helena Ribeiro"/>
-    <s v="Standard"/>
-    <x v="194"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3427"/>
-    <s v="Igor Mendes"/>
-    <s v="Core"/>
-    <x v="195"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3428"/>
-    <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
-    <x v="196"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3429"/>
-    <s v="Lucas Martins"/>
-    <s v="Standard"/>
-    <x v="197"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3430"/>
-    <s v="Marcela Gouveia"/>
-    <s v="Core"/>
-    <x v="198"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3431"/>
-    <s v="Nicolas Borges"/>
-    <s v="Ultimate"/>
-    <x v="199"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3432"/>
-    <s v="Olivia Freitas"/>
-    <s v="Standard"/>
-    <x v="200"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3433"/>
-    <s v="Paulo Nogueira"/>
-    <s v="Core"/>
-    <x v="201"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3434"/>
-    <s v="Raquel Andrade"/>
-    <s v="Ultimate"/>
-    <x v="202"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3435"/>
-    <s v="Sônia Carvalho"/>
-    <s v="Standard"/>
-    <x v="203"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3436"/>
-    <s v="Tiago Rodrigues"/>
-    <s v="Core"/>
-    <x v="204"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3437"/>
-    <s v="Ursula Monteiro"/>
-    <s v="Ultimate"/>
-    <x v="205"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3438"/>
-    <s v="Vanessa Pereira"/>
-    <s v="Standard"/>
-    <x v="206"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3439"/>
-    <s v="Walter Silva"/>
-    <s v="Core"/>
-    <x v="207"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3440"/>
-    <s v="Xavier Almeida"/>
-    <s v="Ultimate"/>
-    <x v="208"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3441"/>
-    <s v="Yasmine Correia"/>
-    <s v="Standard"/>
-    <x v="209"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3442"/>
-    <s v="Zacarias Almeida"/>
-    <s v="Core"/>
-    <x v="210"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3443"/>
-    <s v="Amanda Costa"/>
-    <s v="Ultimate"/>
-    <x v="211"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3444"/>
-    <s v="Bruno Ferreira"/>
-    <s v="Standard"/>
-    <x v="212"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3445"/>
-    <s v="Carla Dias"/>
-    <s v="Core"/>
-    <x v="213"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3446"/>
-    <s v="Diogo Martins"/>
-    <s v="Ultimate"/>
-    <x v="214"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3447"/>
-    <s v="Elisa Campos"/>
-    <s v="Standard"/>
-    <x v="215"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3448"/>
-    <s v="Fabiana Lima"/>
-    <s v="Core"/>
-    <x v="216"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3449"/>
-    <s v="Gabriel Santos"/>
-    <s v="Ultimate"/>
-    <x v="217"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3450"/>
-    <s v="Helena Ferreira"/>
-    <s v="Standard"/>
-    <x v="218"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3451"/>
-    <s v="Ígor Nunes"/>
-    <s v="Core"/>
-    <x v="219"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3452"/>
-    <s v="Joana Silveira"/>
-    <s v="Ultimate"/>
-    <x v="220"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3453"/>
-    <s v="Kléber Oliveira"/>
-    <s v="Standard"/>
-    <x v="221"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3454"/>
-    <s v="Luciana Morais"/>
-    <s v="Core"/>
-    <x v="222"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3455"/>
-    <s v="Marcos Vinícius"/>
-    <s v="Ultimate"/>
-    <x v="223"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3456"/>
-    <s v="Natália Barros"/>
-    <s v="Standard"/>
-    <x v="224"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3457"/>
-    <s v="Oscar Sampaio"/>
-    <s v="Core"/>
-    <x v="225"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3458"/>
-    <s v="Patrícia Leite"/>
-    <s v="Ultimate"/>
-    <x v="226"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3459"/>
-    <s v="Quênia Rocha"/>
-    <s v="Standard"/>
-    <x v="227"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3460"/>
-    <s v="Rafael Torres"/>
-    <s v="Core"/>
-    <x v="228"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3461"/>
-    <s v="Sandra Gouveia"/>
-    <s v="Ultimate"/>
-    <x v="229"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3462"/>
-    <s v="Tiago Lacerda"/>
-    <s v="Standard"/>
-    <x v="230"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3463"/>
-    <s v="Ursula Fonseca"/>
-    <s v="Core"/>
-    <x v="231"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3464"/>
-    <s v="Vanessa Andrade"/>
-    <s v="Ultimate"/>
-    <x v="232"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3465"/>
-    <s v="William Castro"/>
-    <s v="Standard"/>
-    <x v="233"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3466"/>
-    <s v="Xavier Monteiro"/>
-    <s v="Core"/>
-    <x v="234"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3467"/>
-    <s v="Yasmin Figueira"/>
-    <s v="Ultimate"/>
-    <x v="235"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3468"/>
-    <s v="Zacarias Mendonça"/>
-    <s v="Standard"/>
-    <x v="236"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3469"/>
-    <s v="Amanda Menezes"/>
-    <s v="Core"/>
-    <x v="237"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3470"/>
-    <s v="Bruno Santos"/>
-    <s v="Ultimate"/>
-    <x v="238"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3471"/>
-    <s v="Carla Ferreira"/>
-    <s v="Standard"/>
-    <x v="239"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3472"/>
-    <s v="Diogo Alves"/>
-    <s v="Core"/>
-    <x v="240"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3473"/>
-    <s v="Elisa Neves"/>
-    <s v="Ultimate"/>
-    <x v="241"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3474"/>
-    <s v="Fabiano Pires"/>
-    <s v="Standard"/>
-    <x v="242"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3475"/>
-    <s v="Giovana Ribeiro"/>
-    <s v="Core"/>
-    <x v="243"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3476"/>
-    <s v="Hélio Costa"/>
-    <s v="Ultimate"/>
-    <x v="244"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3477"/>
-    <s v="Íris Loureiro"/>
-    <s v="Standard"/>
-    <x v="245"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3478"/>
-    <s v="João Pereira"/>
-    <s v="Core"/>
-    <x v="246"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3479"/>
-    <s v="Klara Silva"/>
-    <s v="Ultimate"/>
-    <x v="247"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3480"/>
-    <s v="Luciana Barros"/>
-    <s v="Standard"/>
-    <x v="248"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3481"/>
-    <s v="Marcos Gomes"/>
-    <s v="Core"/>
-    <x v="249"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3482"/>
-    <s v="Natália Soares"/>
-    <s v="Ultimate"/>
-    <x v="250"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3483"/>
-    <s v="Oscar Machado"/>
-    <s v="Standard"/>
-    <x v="251"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3484"/>
-    <s v="Patrícia Lima"/>
-    <s v="Core"/>
-    <x v="252"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3485"/>
-    <s v="Quirino Neto"/>
-    <s v="Ultimate"/>
-    <x v="253"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3486"/>
-    <s v="Rafaela Souza"/>
-    <s v="Core"/>
-    <x v="254"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3487"/>
-    <s v="Sandro Almeida"/>
-    <s v="Ultimate"/>
-    <x v="255"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3488"/>
-    <s v="Tânia Ribeiro"/>
-    <s v="Standard"/>
-    <x v="256"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3489"/>
-    <s v="Ugo Dias"/>
-    <s v="Core"/>
-    <x v="257"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3490"/>
-    <s v="Valéria Lima"/>
-    <s v="Ultimate"/>
-    <x v="258"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3491"/>
-    <s v="William Fernandes"/>
-    <s v="Standard"/>
-    <x v="259"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <n v="3492"/>
-    <s v="Xuxa Mendes"/>
-    <s v="Core"/>
-    <x v="260"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3493"/>
-    <s v="Ygor Farias"/>
-    <s v="Ultimate"/>
-    <x v="261"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3494"/>
-    <s v="Zilda Barros"/>
-    <s v="Standard"/>
-    <x v="262"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3495"/>
-    <s v="Amanda Santos"/>
-    <s v="Core"/>
-    <x v="263"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3496"/>
-    <s v="Bruno Costa"/>
-    <s v="Ultimate"/>
-    <x v="264"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3497"/>
-    <s v="Carla Rodrigues"/>
-    <s v="Standard"/>
-    <x v="265"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3498"/>
-    <s v="Diogo Pereira"/>
-    <s v="Core"/>
-    <x v="266"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3499"/>
-    <s v="Elisa Correia"/>
-    <s v="Ultimate"/>
-    <x v="267"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3500"/>
-    <s v="Fábio Lourenço"/>
-    <s v="Standard"/>
-    <x v="268"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3501"/>
-    <s v="Gabriela Neves"/>
-    <s v="Core"/>
-    <x v="269"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3502"/>
-    <s v="Henrique Gonçalves"/>
-    <s v="Ultimate"/>
-    <x v="270"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3503"/>
-    <s v="Íris Santos"/>
-    <s v="Standard"/>
-    <x v="271"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3504"/>
-    <s v="João Marcelo Alves"/>
-    <s v="Core"/>
-    <x v="272"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3505"/>
-    <s v="Klara Fonseca"/>
-    <s v="Ultimate"/>
-    <x v="273"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3506"/>
-    <s v="Lucas Mendonça"/>
-    <s v="Standard"/>
-    <x v="274"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3507"/>
-    <s v="Marcela Torres"/>
-    <s v="Core"/>
-    <x v="275"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3508"/>
-    <s v="Natália Castro"/>
-    <s v="Ultimate"/>
-    <x v="276"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3509"/>
-    <s v="Oscar Martins"/>
-    <s v="Standard"/>
-    <x v="277"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3510"/>
-    <s v="Patrícia Oliveira"/>
-    <s v="Core"/>
-    <x v="278"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3511"/>
-    <s v="Quentin Nogueira"/>
-    <s v="Ultimate"/>
-    <x v="279"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="50"/>
-  </r>
-  <r>
-    <n v="3512"/>
-    <s v="Raquel Silva"/>
-    <s v="Standard"/>
-    <x v="280"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3513"/>
-    <s v="Sandro Gomes"/>
-    <s v="Core"/>
-    <x v="281"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="3514"/>
-    <s v="Tânia Machado"/>
-    <s v="Ultimate"/>
-    <x v="282"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="7"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <n v="3515"/>
-    <s v="Ursula Silva"/>
-    <s v="Standard"/>
-    <x v="283"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3516"/>
-    <s v="Vanessa Moraes"/>
-    <s v="Core"/>
-    <x v="284"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3517"/>
-    <s v="William Carvalho"/>
-    <s v="Ultimate"/>
-    <x v="285"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="20"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <n v="3518"/>
-    <s v="Xavier Reis"/>
-    <s v="Standard"/>
-    <x v="286"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="12"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <n v="3519"/>
-    <s v="Yasmin Rocha"/>
-    <s v="Core"/>
-    <x v="287"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="3520"/>
-    <s v="Zacarias Duarte"/>
-    <s v="Ultimate"/>
-    <x v="288"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="5"/>
-    <n v="60"/>
-  </r>
-  <r>
-    <n v="3521"/>
-    <s v="Amanda Freitas"/>
-    <s v="Standard"/>
-    <x v="289"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <n v="3522"/>
-    <s v="Bruno Almeida"/>
-    <s v="Core"/>
-    <x v="290"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="3523"/>
-    <s v="Carla Siqueira"/>
-    <s v="Ultimate"/>
-    <x v="291"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <n v="30"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="3"/>
-    <n v="62"/>
-  </r>
-  <r>
-    <n v="3524"/>
-    <s v="Diogo Ramos"/>
-    <s v="Standard"/>
-    <x v="292"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="Yes"/>
-    <n v="20"/>
-    <n v="15"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <n v="3525"/>
-    <s v="Elisa Magalhães"/>
-    <s v="Core"/>
-    <x v="293"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="-"/>
-    <s v="No"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="4"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31431185-4D80-4F87-99E7-D4194DC616C9}" name="tbl_anual_total" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B13:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="295">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight18" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Subscription_Type" xr10:uid="{895A9F6F-6F42-45CF-9696-67933B451BB1}" sourceName="Subscription Type">
-  <pivotTables>
-    <pivotTable tabId="3" name="tbl_anual_total"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="222217946">
-      <items count="3">
-        <i x="1" s="1"/>
-        <i x="0"/>
-        <i x="2"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Subscription Type" xr10:uid="{7A9A36A8-0D4B-46EF-A5C0-C83313280F95}" cache="SegmentaçãodeDados_Subscription_Type" caption="Subscription Type" style="SlicerStyleLight6" rowHeight="257175"/>
-</slicers>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="0" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="8" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9415,8 +2298,8 @@
   </sheetPr>
   <dimension ref="B3:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9588,24 +2471,25 @@
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:M296"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -9690,7 +2574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -9731,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -9813,7 +2697,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -9854,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -9936,7 +2820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -10018,7 +2902,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -10059,7 +2943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -10141,7 +3025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -10182,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -10264,7 +3148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -10305,7 +3189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -10387,7 +3271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -10428,7 +3312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -10510,7 +3394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -10551,7 +3435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -10633,7 +3517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -10674,7 +3558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -10756,7 +3640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -10797,7 +3681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -10879,7 +3763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -10920,7 +3804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -11002,7 +3886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -11043,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -11084,7 +3968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -11166,7 +4050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -11207,7 +4091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -11289,7 +4173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -11330,7 +4214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -11412,7 +4296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -11453,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -11535,7 +4419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -11576,7 +4460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -11658,7 +4542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -11699,7 +4583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -11781,7 +4665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -11822,7 +4706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -11904,7 +4788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -11945,7 +4829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -12027,7 +4911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -12068,7 +4952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -12150,7 +5034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -12191,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -12273,7 +5157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -12314,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -12396,7 +5280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -12437,7 +5321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -12519,7 +5403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -12560,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -12642,7 +5526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -12683,7 +5567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -12765,7 +5649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -12806,7 +5690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -12888,7 +5772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -12929,7 +5813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -13011,7 +5895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -13052,7 +5936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -13134,7 +6018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -13175,7 +6059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -13257,7 +6141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -13298,7 +6182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -13380,7 +6264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -13421,7 +6305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -13503,7 +6387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -13544,7 +6428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -13626,7 +6510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -13667,7 +6551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -13749,7 +6633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -13790,7 +6674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -13872,7 +6756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -13913,7 +6797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -13954,7 +6838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -14036,7 +6920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -14077,7 +6961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -14159,7 +7043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -14200,7 +7084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -14282,7 +7166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -14323,7 +7207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -14405,7 +7289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -14446,7 +7330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -14528,7 +7412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -14569,7 +7453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -14651,7 +7535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -14692,7 +7576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -14774,7 +7658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -14815,7 +7699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -14897,7 +7781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -14938,7 +7822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -15020,7 +7904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -15061,7 +7945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -15143,7 +8027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -15184,7 +8068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -15266,7 +8150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -15307,7 +8191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -15389,7 +8273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -15430,7 +8314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -15512,7 +8396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -15553,7 +8437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -15635,7 +8519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -15676,7 +8560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -15758,7 +8642,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -15799,7 +8683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -15881,7 +8765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -15922,7 +8806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -16004,7 +8888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -16045,7 +8929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -16127,7 +9011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -16168,7 +9052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -16250,7 +9134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -16291,7 +9175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -16373,7 +9257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -16414,7 +9298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -16496,7 +9380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -16537,7 +9421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -16619,7 +9503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -16660,7 +9544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -16742,7 +9626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -16783,7 +9667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -16824,7 +9708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -16906,7 +9790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -16947,7 +9831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -17029,7 +9913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -17070,7 +9954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -17152,7 +10036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -17193,7 +10077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -17275,7 +10159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -17316,7 +10200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -17398,7 +10282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -17439,7 +10323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -17521,7 +10405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -17562,7 +10446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -17644,7 +10528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -17685,7 +10569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -17767,7 +10651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -17808,7 +10692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -17890,7 +10774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -17931,7 +10815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -18013,7 +10897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -18054,7 +10938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -18136,7 +11020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -18177,7 +11061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -18259,7 +11143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -18300,7 +11184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -18382,7 +11266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -18423,7 +11307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -18505,7 +11389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -18546,7 +11430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -18628,7 +11512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -18669,7 +11553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -18751,7 +11635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -18792,7 +11676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -18874,7 +11758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -18915,7 +11799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -18997,7 +11881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -19038,7 +11922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -19120,7 +12004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -19161,7 +12045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -19243,7 +12127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -19284,7 +12168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -19366,7 +12250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -19407,7 +12291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -19489,7 +12373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -19530,7 +12414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -19612,7 +12496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -19653,7 +12537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -19735,7 +12619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -19776,7 +12660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -19858,7 +12742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -19899,7 +12783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -19981,7 +12865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -20022,7 +12906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -20104,7 +12988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -20186,7 +13070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -20227,7 +13111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -20309,7 +13193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -20350,7 +13234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -20432,7 +13316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -20473,7 +13357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -20555,7 +13439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -20596,7 +13480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -20678,7 +13562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -20719,7 +13603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -20801,7 +13685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -20842,7 +13726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -20924,7 +13808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -20965,7 +13849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -21047,7 +13931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -21088,7 +13972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -21170,7 +14054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -21211,7 +14095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -21293,7 +14177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -21334,7 +14218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -21416,7 +14300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -21457,7 +14341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -21539,7 +14423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -21580,7 +14464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -21662,7 +14546,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -21703,7 +14587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -21758,16 +14642,15 @@
   <sheetPr>
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
-  <dimension ref="B2:C16"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
@@ -21779,77 +14662,9 @@
     <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1754</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21858,7 +14673,7 @@
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21880,26 +14695,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -22154,40 +14949,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}"/>
 </file>